--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Task List" sheetId="1" r:id="rId1"/>
     <sheet name="-Disclaimer-" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team Task List'!$B$2:$G$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Team Task List'!$B$1:$G$27</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>TEAM TASK LIST</t>
   </si>
@@ -56,13 +57,64 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>id_tenant</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>requested_date</t>
+  </si>
+  <si>
+    <t>curdate</t>
+  </si>
+  <si>
+    <t>service_date</t>
+  </si>
+  <si>
+    <t>maintenance_request</t>
+  </si>
+  <si>
+    <t>id_maintenance_request</t>
+  </si>
+  <si>
+    <t>car_cleaning_request</t>
+  </si>
+  <si>
+    <t>id_car_cleaning_request</t>
+  </si>
+  <si>
+    <t>id_plan</t>
+  </si>
+  <si>
+    <t>car_cleaning_plan</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>vehicle_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -151,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,13 +243,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -236,6 +324,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -292,7 +384,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B583A0A-1CEB-F743-BCEC-CA42ED6CF518}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B583A0A-1CEB-F743-BCEC-CA42ED6CF518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -649,7 +741,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
@@ -1118,4 +1210,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="E3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>